--- a/ChamCongTuan/Bang-cham-cong-[8-2020].xlsx
+++ b/ChamCongTuan/Bang-cham-cong-[8-2020].xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DB457F2C1EF09982206E87537BEB129E5EE4ABDF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC9DFCB7-EEFC-4C51-AE82-944BDF925FC8}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_DB457F2C1EF09982206E87537BEB129E5EE4ABDF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{704259EE-69A6-47C0-A08D-ADBFA2E7092C}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1282,14 +1282,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="BE16" sqref="BE16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16042,21 +16045,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BD2"/>
     <mergeCell ref="BE1:BE2"/>
     <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
